--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1134371.403566497</v>
+        <v>1131935.766642791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482832</v>
+        <v>24.78311755148331</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346973</v>
+        <v>216.7787438998075</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>191.2490250244969</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>206.8416987503032</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>6.632494016571229</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>79.41818244097645</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>300.1231055001666</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>206.996138460553</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238041</v>
+        <v>22.60777203238018</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114111</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035295</v>
+        <v>9.753166794035181</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.41761829652231</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009526</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034043</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146347</v>
+        <v>79.00824149146334</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349724</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503571</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950988081</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.78296171220973</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977335</v>
+        <v>104.8913819999775</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>114.5157480654934</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712519</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5334195528344</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>192.8170508184402</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>26.05480806223644</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>74.991295292191</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060497</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.79222725775231</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>80.56412890121562</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>112.5284434523309</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179031</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>194.0641876011614</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>4.019807611471797</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>211.1474991249028</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495403</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495403</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1215.080582403683</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1215.080582403683</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1215.080582403683</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1215.080582403683</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601528</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2085.807325826217</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="C8" t="n">
-        <v>1716.844808885806</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="D8" t="n">
-        <v>1358.579110279055</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>972.7908576808111</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>561.8049528912036</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>146.7325027362</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890339</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.321720032917</v>
+        <v>1838.026121952505</v>
       </c>
       <c r="C11" t="n">
-        <v>1497.359203092506</v>
+        <v>1469.063605012093</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.204551072135</v>
+        <v>1110.797906405343</v>
       </c>
       <c r="E11" t="n">
-        <v>808.4162984738909</v>
+        <v>725.0096538070989</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>515.9226452610854</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469173</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386827</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420312</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687098</v>
+        <v>3070.226377687104</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856279</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882237</v>
+        <v>3835.937563882244</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234587</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455656</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971436</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604045</v>
+        <v>3672.062594867203</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604045</v>
+        <v>3340.999707523632</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.526650333931</v>
+        <v>2988.231052253518</v>
       </c>
       <c r="X11" t="n">
-        <v>2643.060892072851</v>
+        <v>2614.765293992438</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.921560097039</v>
+        <v>2224.625962016627</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503042</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469173</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469173</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469173</v>
+        <v>477.1621322376507</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843912</v>
+        <v>900.4499396649607</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282801</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1955.072021259918</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2428.043574125667</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.703173037794</v>
+        <v>203.8650582458561</v>
       </c>
       <c r="C13" t="n">
-        <v>925.7669901098875</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975517</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151586</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172482</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469173</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600398</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457699</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288891</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014271</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370154</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370154</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.302075370154</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1633.617587164267</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.200417127306</v>
+        <v>834.2956531176433</v>
       </c>
       <c r="X13" t="n">
-        <v>1344.200417127306</v>
+        <v>606.3061022196259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1123.407837983776</v>
+        <v>385.5135230760958</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708305</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>242.926066115635</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L15" t="n">
-        <v>733.6583989593863</v>
+        <v>372.2013186925058</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>964.2196729446335</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.1710892086082</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C16" t="n">
-        <v>762.2349062807014</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D16" t="n">
-        <v>612.1182668683655</v>
+        <v>387.614664306384</v>
       </c>
       <c r="E16" t="n">
-        <v>464.2051732859725</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880622</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880623</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156339</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861976</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2325.382124608861</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2105.703342323243</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>2105.703342323243</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.018854117356</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.601684080395</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.612133182378</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y16" t="n">
-        <v>1112.819554038848</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5501,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812165</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998294</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000582</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362673</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327647</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048579</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925222</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101292</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630045</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>653.747479770894</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597622</v>
+        <v>484.8112968429871</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597622</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597622</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2336.95642451839</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541331</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885529</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679642</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642681</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>1056.188523744664</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>835.3959446011337</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>984.5467179762946</v>
       </c>
       <c r="C28" t="n">
         <v>847.6442739835331</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,22 +6412,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.021500885207</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.228921741677</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6646,7 +6646,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
         <v>2044.506784258106</v>
@@ -6658,13 +6658,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647279</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C34" t="n">
-        <v>631.564586536821</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133955</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310024</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216013</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949676</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="35">
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784064</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504995</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381638</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557706</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578603</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135298</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856229</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>402.724593490894</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2333.297989183966</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.222762528164</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322277</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.1315533873</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876684</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597615</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803616</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614382</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179081</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876686</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597617</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597617</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>265.0731740618514</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>97.87707477673121</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614385</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179083</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>54.55993612051634</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>199.8799072811585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114097</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.414361885415</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767525</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034035</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>50.29152613728934</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>143.3016600672243</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>146.5555266462492</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667958</v>
+        <v>41.54258064659165</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>102.8897022617949</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353039267</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>31.7134015457934</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>32.892604570597</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>120.3791545843327</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>73.62417772602136</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,10 +25123,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.039752924185</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>99.26785128072167</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>104.8770068749574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.4693302300333</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>92.12028678808282</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>136.2749052347522</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>6.257951202385357</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876409.9323886953</v>
+        <v>876409.9323886962</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409666</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409666</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958766.302040967</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409669</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876631</v>
+        <v>423807.2415876637</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918678</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185147</v>
+        <v>143114.1392185166</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051393</v>
+        <v>166521.3471051374</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.2362355785</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115304</v>
+        <v>37377.32855115355</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848951</v>
+        <v>43782.406558489</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314483</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214701</v>
+        <v>86093.72216214717</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1054933.735640168</v>
+        <v>-1054933.735640167</v>
       </c>
       <c r="C6" t="n">
-        <v>273811.010087425</v>
+        <v>273811.0100874249</v>
       </c>
       <c r="D6" t="n">
         <v>273811.0100874251</v>
       </c>
       <c r="E6" t="n">
-        <v>183531.4689125139</v>
+        <v>183321.5046686676</v>
       </c>
       <c r="F6" t="n">
-        <v>183716.8934423219</v>
+        <v>183670.9884467582</v>
       </c>
       <c r="G6" t="n">
-        <v>340652.4965104741</v>
+        <v>340617.7585850388</v>
       </c>
       <c r="H6" t="n">
-        <v>351819.7327460532</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="I6" t="n">
-        <v>351819.7327460531</v>
+        <v>351784.9948206171</v>
       </c>
       <c r="J6" t="n">
-        <v>134288.5303487756</v>
+        <v>134253.7924233399</v>
       </c>
       <c r="K6" t="n">
-        <v>351819.732746053</v>
+        <v>351784.9948206174</v>
       </c>
       <c r="L6" t="n">
-        <v>351819.732746053</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="M6" t="n">
-        <v>314442.4041949</v>
+        <v>314407.6662694638</v>
       </c>
       <c r="N6" t="n">
-        <v>308037.3261875635</v>
+        <v>308002.5882621284</v>
       </c>
       <c r="O6" t="n">
-        <v>348796.4347688284</v>
+        <v>348761.6968433929</v>
       </c>
       <c r="P6" t="n">
-        <v>351819.732746053</v>
+        <v>351784.9948206173</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,7 +26796,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086466</v>
+        <v>981.3883278086487</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012567</v>
+        <v>122.3935669012583</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218308</v>
+        <v>145.8707812218292</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406354</v>
+        <v>149.986872406356</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173603</v>
+        <v>178.7569625173583</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406354</v>
+        <v>149.986872406356</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173603</v>
+        <v>178.7569625173583</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406354</v>
+        <v>149.986872406356</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173603</v>
+        <v>178.7569625173583</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112253</v>
+        <v>361.4548211045703</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433985</v>
+        <v>8.930911489229686</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>190.6813450477648</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>79.3701394553097</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>348.0505476041117</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>215.189581946344</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.340601993710663e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.097966327914037e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-8.159872777468991e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29922,7 +29922,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.706357804527215e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485645</v>
+        <v>4.873046301485651</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508987</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307176</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726051</v>
+        <v>619.8697634726059</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216965</v>
+        <v>769.0032542216975</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857418</v>
+        <v>855.6642913857429</v>
       </c>
       <c r="N11" t="n">
-        <v>869.509834189838</v>
+        <v>869.5098341898391</v>
       </c>
       <c r="O11" t="n">
-        <v>821.05348002944</v>
+        <v>821.0534800294411</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461513</v>
+        <v>700.750149461514</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188515</v>
+        <v>0.389843704118852</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.60730963196942</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059647</v>
+        <v>89.76921320596482</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202556</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310857</v>
+        <v>566.1178216256418</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845324</v>
+        <v>660.6327957845333</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147134</v>
+        <v>678.1177801147143</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431804</v>
+        <v>620.3452877431812</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205466</v>
+        <v>266.1421801896169</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071843</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697582</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691785</v>
+        <v>65.73539745691794</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619739</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509177</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263706</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973091</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570602</v>
+        <v>98.28514988570615</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929608</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826896</v>
+        <v>9.339672552826908</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>289.4721893678483</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>420.7661933823239</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32096,7 +32096,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040313</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276245</v>
+        <v>399.7799124276253</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517092</v>
+        <v>533.2368392517103</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584691</v>
+        <v>625.3180581584702</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077533</v>
+        <v>590.9552686077543</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062435</v>
+        <v>469.5171537062444</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156576</v>
+        <v>90.52095692156615</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458966</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512116</v>
+        <v>427.5634418457676</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313801</v>
+        <v>546.776068031381</v>
       </c>
       <c r="O12" t="n">
-        <v>477.749043298736</v>
+        <v>477.7490432987368</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062164</v>
+        <v>132.1677727752866</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211628</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701824</v>
+        <v>61.18259316701847</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882112</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190453</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998341</v>
+        <v>96.87566713998366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>151.6307503934893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>282.2118136024497</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35744,7 +35744,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
